--- a/Test_Scenario/RIS_TestCase.xlsx
+++ b/Test_Scenario/RIS_TestCase.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>Steps</t>
   </si>
@@ -55,9 +55,6 @@
     <t>No run</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t xml:space="preserve">iproc Requistion creation, receving  </t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Requisition with leasehold improvement: REAL ESTATE.DESIGN AND CONSTRUCTION.55121700 OR FM.Building Maintenance.26000000</t>
+  </si>
+  <si>
+    <t>Operational Reporting -MMC GLB AR Outstanding Invoices Listing</t>
   </si>
   <si>
     <t>TestCase_Id</t>
@@ -233,6 +233,9 @@
     <t>GSI.A2R.IP.03.003</t>
   </si>
   <si>
+    <t>fn_SubmitRequest</t>
+  </si>
+  <si>
     <t>fn_logout</t>
   </si>
   <si>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>GSI.O2C.AR.SA.017</t>
   </si>
   <si>
     <t>Step 13</t>
@@ -332,7 +338,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,6 +370,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,52 +430,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -408,30 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +511,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -529,9 +537,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -560,18 +566,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
@@ -580,49 +586,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -892,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B24"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -903,7 +909,8 @@
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row>
@@ -917,10 +924,10 @@
         <v>0</v>
       </c>
       <c s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="4" t="s">
         <v>36</v>
@@ -930,57 +937,57 @@
       </c>
     </row>
     <row>
-      <c s="10" t="s">
+      <c s="8" t="s">
+        <v>80</v>
+      </c>
+      <c s="3" t="s">
+        <v>58</v>
+      </c>
+      <c s="1" t="s">
+        <v>67</v>
+      </c>
+      <c s="1" t="s">
+        <v>30</v>
+      </c>
+      <c s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>88</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" t="s">
         <v>79</v>
-      </c>
-      <c s="3" t="s">
-        <v>58</v>
-      </c>
-      <c s="1" t="s">
-        <v>67</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>86</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>68</v>
@@ -988,20 +995,20 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="3"/>
       <c s="1" t="s">
         <v>69</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+        <v>23</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>31</v>
       </c>
       <c s="9" t="s">
@@ -1020,10 +1027,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -1035,24 +1042,24 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>53</v>
       </c>
       <c s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -1067,10 +1074,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -1082,24 +1089,24 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="15" t="s">
-        <v>80</v>
-      </c>
-      <c s="22" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="13" t="s">
+        <v>81</v>
+      </c>
+      <c s="20" t="s">
+        <v>15</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -1108,16 +1115,16 @@
         <v>30</v>
       </c>
       <c s="2" t="s">
-        <v>80</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="13"/>
-      <c s="17"/>
-      <c s="2" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="22"/>
+      <c s="21"/>
+      <c s="2" t="s">
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -1129,21 +1136,21 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="13"/>
-      <c s="17"/>
-      <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="13"/>
-      <c s="17"/>
+      <c s="22"/>
+      <c s="21"/>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="22"/>
+      <c s="21"/>
       <c s="2" t="s">
         <v>43</v>
       </c>
@@ -1157,8 +1164,8 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="13"/>
-      <c s="17"/>
+      <c s="22"/>
+      <c s="21"/>
       <c s="2" t="s">
         <v>69</v>
       </c>
@@ -1166,15 +1173,15 @@
         <v>59</v>
       </c>
       <c s="1"/>
-      <c s="11"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+      <c s="10"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>8</v>
       </c>
       <c s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -1189,10 +1196,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -1204,20 +1211,20 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
         <v>43</v>
@@ -1232,41 +1239,41 @@
       <c s="2"/>
     </row>
     <row>
+      <c s="8"/>
+      <c s="9"/>
+      <c s="2" t="s">
+        <v>69</v>
+      </c>
+      <c s="1" t="s">
+        <v>59</v>
+      </c>
+      <c s="1"/>
       <c s="10"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>69</v>
-      </c>
-      <c s="1" t="s">
-        <v>59</v>
-      </c>
-      <c s="1"/>
-      <c s="11"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
+        <v>91</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="2"/>
+      <c s="2" t="s">
+        <v>26</v>
+      </c>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>89</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="2"/>
-      <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="9"/>
-      <c s="2" t="s">
-        <v>26</v>
-      </c>
-      <c s="1" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c s="1" t="s">
+        <v>75</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -1295,7 +1302,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1310,10 +1317,10 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -1351,22 +1358,22 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="7"/>
-      <c s="7"/>
-      <c s="2" t="s">
         <v>26</v>
+      </c>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>25</v>
       </c>
       <c s="1" t="s">
         <v>50</v>
@@ -1398,7 +1405,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1413,10 +1420,10 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -1454,25 +1461,25 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="7"/>
-      <c s="7"/>
-      <c s="2" t="s">
         <v>26</v>
       </c>
-      <c s="1" t="s">
-        <v>18</v>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>25</v>
+      </c>
+      <c s="1" t="s">
+        <v>17</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -1501,7 +1508,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1516,7 +1523,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
@@ -1548,7 +1555,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1563,7 +1570,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
@@ -1576,7 +1583,7 @@
       <c s="3" t="s">
         <v>10</v>
       </c>
-      <c s="19" t="s">
+      <c s="15" t="s">
         <v>64</v>
       </c>
       <c s="3" t="s">
@@ -1593,9 +1600,9 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>86</v>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1608,13 +1615,13 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
+      <c s="15"/>
+      <c s="3" t="s">
         <v>20</v>
       </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
       <c s="1"/>
       <c s="3" t="s">
         <v>65</v>
@@ -1623,7 +1630,7 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>43</v>
       </c>
@@ -1638,38 +1645,38 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>69</v>
       </c>
       <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c s="3"/>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="3"/>
       <c s="3" t="s">
-        <v>27</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
         <v>26</v>
       </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>25</v>
+      </c>
       <c s="1" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1686,7 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>49</v>
       </c>
@@ -1694,20 +1701,20 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>73</v>
-      </c>
-      <c s="3" t="s">
-        <v>77</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>74</v>
+      </c>
+      <c s="3" t="s">
+        <v>78</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>7</v>
       </c>
@@ -1722,87 +1729,87 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>32</v>
       </c>
       <c s="3" t="s">
+        <v>19</v>
+      </c>
+      <c s="3"/>
+      <c s="3" t="s">
+        <v>42</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>60</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="3"/>
+      <c s="3" t="s">
+        <v>26</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>87</v>
+      </c>
+      <c s="3" t="s">
+        <v>6</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3" t="s">
+        <v>35</v>
+      </c>
+      <c s="15" t="s">
+        <v>48</v>
+      </c>
+      <c s="3" t="s">
+        <v>67</v>
+      </c>
+      <c s="3" t="s">
+        <v>30</v>
+      </c>
+      <c s="3" t="s">
+        <v>35</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>88</v>
+      </c>
+      <c s="1" t="s">
+        <v>4</v>
+      </c>
+      <c s="17"/>
+      <c s="3" t="s">
+        <v>68</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
         <v>20</v>
       </c>
-      <c s="3"/>
-      <c s="3" t="s">
-        <v>42</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="3"/>
-      <c s="3" t="s">
-        <v>27</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>85</v>
-      </c>
-      <c s="3" t="s">
-        <v>6</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3" t="s">
-        <v>35</v>
-      </c>
-      <c s="19" t="s">
-        <v>48</v>
-      </c>
-      <c s="3" t="s">
-        <v>67</v>
-      </c>
-      <c s="3" t="s">
-        <v>30</v>
-      </c>
-      <c s="3" t="s">
-        <v>35</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>86</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="21"/>
-      <c s="3" t="s">
-        <v>68</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>21</v>
-      </c>
       <c s="3" t="s">
         <v>66</v>
       </c>
@@ -1810,12 +1817,12 @@
       <c s="3"/>
       <c s="3"/>
     </row>
-    <row>
+    <row ht="14.4" customHeight="1">
       <c s="7" t="s">
         <v>57</v>
       </c>
       <c s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -1833,8 +1840,55 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
+        <v>88</v>
+      </c>
+      <c s="1" t="s">
+        <v>4</v>
+      </c>
+      <c s="2"/>
+      <c s="2" t="s">
+        <v>68</v>
+      </c>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>71</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="7" t="s">
         <v>86</v>
       </c>
+      <c s="7" t="s">
+        <v>28</v>
+      </c>
+      <c s="2" t="s">
+        <v>67</v>
+      </c>
+      <c s="2" t="s">
+        <v>30</v>
+      </c>
+      <c s="2" t="s">
+        <v>86</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>88</v>
+      </c>
       <c s="1" t="s">
         <v>4</v>
       </c>
@@ -1848,17 +1902,17 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>71</v>
       </c>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A9"/>
@@ -1883,6 +1937,8 @@
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -1891,20 +1947,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A61:G63"/>
+      <selection activeCell="A66" sqref="A64:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.078125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="28" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.078125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="28" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="15.1" customFormat="1">
@@ -1918,10 +1975,10 @@
         <v>0</v>
       </c>
       <c t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c t="s">
         <v>36</v>
@@ -1931,8 +1988,8 @@
       </c>
     </row>
     <row>
-      <c s="23" t="s">
-        <v>79</v>
+      <c s="24" t="s">
+        <v>80</v>
       </c>
       <c s="6" t="s">
         <v>58</v>
@@ -1944,81 +2001,389 @@
         <v>30</v>
       </c>
       <c s="5" t="s">
+        <v>80</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="6"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>38</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="6"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>14</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="6"/>
+      <c s="5" t="s">
+        <v>43</v>
+      </c>
+      <c s="5" t="s">
         <v>79</v>
       </c>
       <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
       <c s="6"/>
       <c s="5" t="s">
-        <v>86</v>
-      </c>
-      <c s="5" t="s">
-        <v>38</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="6"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
+        <v>69</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24" t="s">
+        <v>31</v>
+      </c>
+      <c s="11" t="s">
+        <v>3</v>
+      </c>
+      <c s="5" t="s">
+        <v>67</v>
+      </c>
+      <c s="5" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" t="s">
+        <v>31</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24" t="s">
+        <v>53</v>
+      </c>
+      <c s="11" t="s">
+        <v>92</v>
+      </c>
+      <c s="5" t="s">
+        <v>67</v>
+      </c>
+      <c s="5" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" t="s">
+        <v>53</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24" t="s">
+        <v>81</v>
+      </c>
+      <c s="11" t="s">
         <v>15</v>
       </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="6"/>
+      <c s="5" t="s">
+        <v>67</v>
+      </c>
+      <c s="5" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" t="s">
+        <v>81</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
       <c s="5" t="s">
         <v>43</v>
       </c>
       <c s="5" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>69</v>
+      </c>
+      <c s="5" t="s">
+        <v>59</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24" t="s">
+        <v>8</v>
+      </c>
+      <c s="11" t="s">
+        <v>24</v>
+      </c>
+      <c s="5" t="s">
+        <v>67</v>
+      </c>
+      <c s="5" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" t="s">
+        <v>8</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
       </c>
       <c s="5"/>
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="6"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>43</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
       <c s="5" t="s">
         <v>69</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23" t="s">
-        <v>31</v>
-      </c>
-      <c s="8" t="s">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>91</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="24"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>25</v>
+      </c>
+      <c s="5" t="s">
+        <v>75</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="15" customHeight="1">
+      <c s="11" t="s">
+        <v>54</v>
+      </c>
+      <c s="11" t="s">
+        <v>39</v>
       </c>
       <c s="5" t="s">
         <v>67</v>
@@ -2027,18 +2392,18 @@
         <v>30</v>
       </c>
       <c s="5" t="s">
-        <v>31</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2047,31 +2412,95 @@
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23" t="s">
-        <v>53</v>
-      </c>
-      <c s="8" t="s">
-        <v>90</v>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>43</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>69</v>
+      </c>
+      <c s="5" t="s">
+        <v>59</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>91</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>25</v>
+      </c>
+      <c s="5" t="s">
+        <v>50</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11" t="s">
+        <v>5</v>
+      </c>
+      <c s="11" t="s">
+        <v>41</v>
       </c>
       <c s="5" t="s">
         <v>67</v>
@@ -2080,18 +2509,18 @@
         <v>30</v>
       </c>
       <c s="5" t="s">
-        <v>53</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2100,31 +2529,95 @@
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23" t="s">
-        <v>80</v>
-      </c>
-      <c s="8" t="s">
-        <v>16</v>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>23</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>43</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>69</v>
+      </c>
+      <c s="5" t="s">
+        <v>59</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>91</v>
+      </c>
+      <c s="5" t="s">
+        <v>62</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>25</v>
+      </c>
+      <c s="5" t="s">
+        <v>17</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11" t="s">
+        <v>34</v>
+      </c>
+      <c s="11" t="s">
+        <v>63</v>
       </c>
       <c s="5" t="s">
         <v>67</v>
@@ -2133,18 +2626,18 @@
         <v>30</v>
       </c>
       <c s="5" t="s">
-        <v>80</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
+        <v>34</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2153,63 +2646,31 @@
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>43</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>2</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>69</v>
-      </c>
-      <c s="5" t="s">
-        <v>59</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23" t="s">
-        <v>8</v>
-      </c>
-      <c s="8" t="s">
-        <v>25</v>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>47</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11" t="s">
+        <v>56</v>
+      </c>
+      <c s="11" t="s">
+        <v>9</v>
       </c>
       <c s="5" t="s">
         <v>67</v>
@@ -2218,18 +2679,18 @@
         <v>30</v>
       </c>
       <c s="5" t="s">
-        <v>8</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2238,426 +2699,22 @@
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>43</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>2</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>69</v>
-      </c>
-      <c s="5" t="s">
-        <v>59</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>89</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>27</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="23"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>26</v>
-      </c>
-      <c s="5" t="s">
-        <v>74</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row ht="15" customHeight="1">
-      <c s="8" t="s">
-        <v>54</v>
-      </c>
-      <c s="8" t="s">
-        <v>39</v>
-      </c>
-      <c s="5" t="s">
-        <v>67</v>
-      </c>
-      <c s="5" t="s">
-        <v>30</v>
-      </c>
-      <c s="5" t="s">
-        <v>54</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
-      </c>
-      <c s="5" t="s">
-        <v>4</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>68</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>43</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>2</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>69</v>
-      </c>
-      <c s="5" t="s">
-        <v>59</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>89</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>27</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>26</v>
-      </c>
-      <c s="5" t="s">
-        <v>50</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8" t="s">
-        <v>5</v>
-      </c>
-      <c s="8" t="s">
-        <v>41</v>
-      </c>
-      <c s="5" t="s">
-        <v>67</v>
-      </c>
-      <c s="5" t="s">
-        <v>30</v>
-      </c>
-      <c s="5" t="s">
-        <v>5</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
-      </c>
-      <c s="5" t="s">
-        <v>4</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>68</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>43</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>2</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>69</v>
-      </c>
-      <c s="5" t="s">
-        <v>59</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>89</v>
-      </c>
-      <c s="5" t="s">
-        <v>62</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>27</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>26</v>
-      </c>
-      <c s="5" t="s">
-        <v>18</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8" t="s">
-        <v>34</v>
-      </c>
-      <c s="8" t="s">
-        <v>63</v>
-      </c>
-      <c s="5" t="s">
-        <v>67</v>
-      </c>
-      <c s="5" t="s">
-        <v>30</v>
-      </c>
-      <c s="5" t="s">
-        <v>34</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
-      </c>
-      <c s="5" t="s">
-        <v>4</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>68</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
+      <c s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
       </c>
       <c s="5" t="s">
         <v>47</v>
       </c>
       <c s="5"/>
       <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8" t="s">
-        <v>56</v>
-      </c>
-      <c s="8" t="s">
-        <v>9</v>
-      </c>
-      <c s="5" t="s">
-        <v>67</v>
-      </c>
-      <c s="5" t="s">
-        <v>30</v>
-      </c>
-      <c s="5" t="s">
-        <v>56</v>
-      </c>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>86</v>
-      </c>
-      <c s="5" t="s">
-        <v>4</v>
-      </c>
-      <c s="5"/>
-      <c s="5" t="s">
-        <v>68</v>
-      </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>47</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
+      <c s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2678,15 +2735,15 @@
         <v>10</v>
       </c>
       <c s="6"/>
-      <c s="25" t="s">
-        <v>84</v>
+      <c s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row>
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2695,24 +2752,24 @@
       <c s="6" t="s">
         <v>68</v>
       </c>
-      <c s="25" t="s">
-        <v>12</v>
+      <c s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row>
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
         <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>19</v>
       </c>
       <c s="5"/>
       <c s="6" t="s">
         <v>65</v>
       </c>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2729,7 +2786,7 @@
       <c s="6" t="s">
         <v>2</v>
       </c>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2740,11 +2797,11 @@
         <v>69</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c s="6"/>
       <c s="5"/>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2752,16 +2809,16 @@
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c s="5" t="s">
         <v>62</v>
       </c>
       <c s="6"/>
       <c s="6" t="s">
-        <v>27</v>
-      </c>
-      <c s="25" t="s">
+        <v>26</v>
+      </c>
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2769,14 +2826,14 @@
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c s="5" t="s">
         <v>59</v>
       </c>
       <c s="6"/>
       <c s="6"/>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2793,7 +2850,7 @@
       <c s="6" t="s">
         <v>2</v>
       </c>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2801,14 +2858,14 @@
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="6"/>
       <c s="6"/>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2825,7 +2882,7 @@
       <c s="6" t="s">
         <v>68</v>
       </c>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2836,13 +2893,13 @@
         <v>32</v>
       </c>
       <c s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c s="6"/>
       <c s="6" t="s">
         <v>42</v>
       </c>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2857,9 +2914,9 @@
       </c>
       <c s="6"/>
       <c s="6" t="s">
-        <v>27</v>
-      </c>
-      <c s="25" t="s">
+        <v>26</v>
+      </c>
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2867,14 +2924,14 @@
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c s="6" t="s">
         <v>6</v>
       </c>
       <c s="6"/>
       <c s="6"/>
-      <c s="25" t="s">
+      <c s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2895,15 +2952,15 @@
         <v>35</v>
       </c>
       <c s="6"/>
-      <c s="25" t="s">
-        <v>84</v>
+      <c s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row>
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="5" t="s">
         <v>4</v>
@@ -2912,31 +2969,31 @@
       <c s="6" t="s">
         <v>68</v>
       </c>
-      <c s="25" t="s">
-        <v>84</v>
+      <c s="23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row>
       <c s="6"/>
       <c s="27"/>
       <c s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="6" t="s">
         <v>66</v>
       </c>
       <c s="6"/>
       <c s="6"/>
-      <c s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row>
-      <c s="8" t="s">
+      <c s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row ht="14.4" customHeight="1">
+      <c s="11" t="s">
         <v>57</v>
       </c>
-      <c s="8" t="s">
-        <v>83</v>
+      <c s="11" t="s">
+        <v>84</v>
       </c>
       <c s="5" t="s">
         <v>67</v>
@@ -2948,16 +3005,69 @@
         <v>57</v>
       </c>
       <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
+      <c s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
+      <c s="5" t="s">
+        <v>4</v>
+      </c>
+      <c s="5"/>
+      <c s="5" t="s">
+        <v>68</v>
+      </c>
+      <c s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>71</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row>
+      <c s="11" t="s">
         <v>86</v>
       </c>
+      <c s="11" t="s">
+        <v>28</v>
+      </c>
+      <c s="5" t="s">
+        <v>67</v>
+      </c>
+      <c s="5" t="s">
+        <v>30</v>
+      </c>
+      <c s="5" t="s">
+        <v>86</v>
+      </c>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>88</v>
+      </c>
       <c s="5" t="s">
         <v>4</v>
       </c>
@@ -2965,27 +3075,27 @@
       <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row>
-      <c s="8"/>
-      <c s="8"/>
-      <c s="5" t="s">
-        <v>21</v>
-      </c>
-      <c s="5" t="s">
-        <v>19</v>
-      </c>
-      <c s="5"/>
-      <c s="5"/>
-      <c s="14" t="s">
-        <v>11</v>
+      <c s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row>
+      <c s="11"/>
+      <c s="11"/>
+      <c s="5" t="s">
+        <v>20</v>
+      </c>
+      <c s="5" t="s">
+        <v>71</v>
+      </c>
+      <c s="5"/>
+      <c s="5"/>
+      <c s="19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A7:A9"/>
@@ -3010,6 +3120,8 @@
     <mergeCell ref="B58:B60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
@@ -3044,10 +3156,10 @@
         <v>0</v>
       </c>
       <c s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="4" t="s">
         <v>36</v>
@@ -3057,11 +3169,11 @@
       </c>
     </row>
     <row>
-      <c s="20" t="s">
+      <c s="14" t="s">
         <v>33</v>
       </c>
-      <c s="20" t="s">
-        <v>75</v>
+      <c s="14" t="s">
+        <v>76</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3076,10 +3188,10 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="2" t="s">
-        <v>86</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="2" t="s">
+        <v>88</v>
       </c>
       <c s="2" t="s">
         <v>45</v>
@@ -3089,13 +3201,13 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="2" t="s">
-        <v>78</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="2" t="s">
+        <v>79</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
@@ -3104,37 +3216,37 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
+      <c s="14"/>
+      <c s="14"/>
       <c s="2" t="s">
         <v>43</v>
       </c>
       <c s="2" t="s">
-        <v>91</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="20"/>
-      <c s="20"/>
+        <v>93</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
       <c s="2" t="s">
         <v>69</v>
       </c>
       <c s="12" t="s">
-        <v>76</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="20" t="s">
+        <v>77</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14" t="s">
         <v>55</v>
       </c>
-      <c s="20" t="s">
-        <v>17</v>
+      <c s="14" t="s">
+        <v>16</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3149,10 +3261,10 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="2" t="s">
-        <v>86</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="2" t="s">
+        <v>88</v>
       </c>
       <c s="2" t="s">
         <v>45</v>
@@ -3162,13 +3274,13 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="2" t="s">
-        <v>78</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="2" t="s">
+        <v>79</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
@@ -3177,37 +3289,37 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
+      <c s="14"/>
+      <c s="14"/>
       <c s="2" t="s">
         <v>43</v>
       </c>
       <c s="2" t="s">
-        <v>91</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="20"/>
-      <c s="20"/>
+        <v>93</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
       <c s="2" t="s">
         <v>69</v>
       </c>
       <c s="12" t="s">
-        <v>76</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="20" t="s">
+        <v>77</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14" t="s">
         <v>70</v>
       </c>
-      <c s="20" t="s">
-        <v>28</v>
+      <c s="14" t="s">
+        <v>27</v>
       </c>
       <c s="1" t="s">
         <v>67</v>
@@ -3222,10 +3334,10 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="1" t="s">
-        <v>86</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="1" t="s">
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>45</v>
@@ -3235,13 +3347,13 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>78</v>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>79</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
@@ -3250,26 +3362,26 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="20"/>
-      <c s="20"/>
+      <c s="14"/>
+      <c s="14"/>
       <c s="1" t="s">
         <v>43</v>
       </c>
       <c s="1" t="s">
+        <v>73</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="14"/>
+      <c s="14"/>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
         <v>72</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="20"/>
-      <c s="20"/>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>71</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3280,7 +3392,7 @@
         <v>40</v>
       </c>
       <c s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3298,7 +3410,7 @@
       <c s="16"/>
       <c s="16"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="2" t="s">
         <v>45</v>
@@ -3311,10 +3423,10 @@
       <c s="16"/>
       <c s="16"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="2" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c s="2" t="s">
+        <v>79</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
@@ -3329,7 +3441,7 @@
         <v>43</v>
       </c>
       <c s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3342,7 +3454,7 @@
         <v>69</v>
       </c>
       <c s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3350,7 +3462,7 @@
     </row>
     <row>
       <c s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c s="16" t="s">
         <v>46</v>
@@ -3362,7 +3474,7 @@
         <v>30</v>
       </c>
       <c s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3371,7 +3483,7 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>45</v>
@@ -3384,10 +3496,10 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>79</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
@@ -3402,7 +3514,7 @@
         <v>43</v>
       </c>
       <c s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3415,7 +3527,7 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3423,10 +3535,10 @@
     </row>
     <row>
       <c s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c s="1" t="s">
         <v>67</v>
@@ -3435,7 +3547,7 @@
         <v>30</v>
       </c>
       <c s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3444,7 +3556,7 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>45</v>
@@ -3457,10 +3569,10 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>78</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>79</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
@@ -3475,7 +3587,7 @@
         <v>43</v>
       </c>
       <c s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3504,7 +3616,7 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>45</v>
@@ -3517,10 +3629,10 @@
       <c s="16"/>
       <c s="16"/>
       <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>72</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -3575,10 +3687,10 @@
         <v>0</v>
       </c>
       <c s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c s="4" t="s">
         <v>36</v>
@@ -3588,57 +3700,57 @@
       </c>
     </row>
     <row>
-      <c s="10" t="s">
+      <c s="8" t="s">
+        <v>80</v>
+      </c>
+      <c s="3" t="s">
+        <v>58</v>
+      </c>
+      <c s="1" t="s">
+        <v>67</v>
+      </c>
+      <c s="1" t="s">
+        <v>30</v>
+      </c>
+      <c s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>88</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8"/>
+      <c s="3"/>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="1" t="s">
         <v>79</v>
-      </c>
-      <c s="3" t="s">
-        <v>58</v>
-      </c>
-      <c s="1" t="s">
-        <v>67</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>86</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="3"/>
-      <c s="1" t="s">
-        <v>43</v>
-      </c>
-      <c s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>68</v>
@@ -3646,20 +3758,20 @@
       <c s="1"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="3"/>
       <c s="1" t="s">
         <v>69</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+        <v>23</v>
+      </c>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>31</v>
       </c>
       <c s="9" t="s">
@@ -3678,10 +3790,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -3693,24 +3805,24 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>53</v>
       </c>
       <c s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3725,10 +3837,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -3740,24 +3852,24 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="15" t="s">
-        <v>80</v>
-      </c>
-      <c s="22" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="13" t="s">
+        <v>81</v>
+      </c>
+      <c s="20" t="s">
+        <v>15</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3766,16 +3878,16 @@
         <v>30</v>
       </c>
       <c s="2" t="s">
-        <v>80</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="13"/>
-      <c s="17"/>
-      <c s="2" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="22"/>
+      <c s="21"/>
+      <c s="2" t="s">
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -3787,21 +3899,21 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="13"/>
-      <c s="17"/>
-      <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="13"/>
-      <c s="17"/>
+      <c s="22"/>
+      <c s="21"/>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="22"/>
+      <c s="21"/>
       <c s="2" t="s">
         <v>43</v>
       </c>
@@ -3815,8 +3927,8 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="13"/>
-      <c s="17"/>
+      <c s="22"/>
+      <c s="21"/>
       <c s="2" t="s">
         <v>69</v>
       </c>
@@ -3824,15 +3936,15 @@
         <v>59</v>
       </c>
       <c s="1"/>
-      <c s="11"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10" t="s">
+      <c s="10"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8" t="s">
         <v>8</v>
       </c>
       <c s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -3847,10 +3959,10 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -3862,20 +3974,20 @@
       <c s="2"/>
     </row>
     <row>
-      <c s="10"/>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="2"/>
-      <c s="2"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
+      </c>
+      <c s="2"/>
+      <c s="2"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
         <v>43</v>
@@ -3890,41 +4002,41 @@
       <c s="2"/>
     </row>
     <row>
+      <c s="8"/>
+      <c s="9"/>
+      <c s="2" t="s">
+        <v>69</v>
+      </c>
+      <c s="1" t="s">
+        <v>59</v>
+      </c>
+      <c s="1"/>
       <c s="10"/>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>69</v>
-      </c>
-      <c s="1" t="s">
-        <v>59</v>
-      </c>
-      <c s="1"/>
-      <c s="11"/>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
+        <v>91</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="2"/>
+      <c s="2" t="s">
+        <v>26</v>
+      </c>
+      <c s="2"/>
+    </row>
+    <row>
+      <c s="8"/>
       <c s="9"/>
       <c s="2" t="s">
-        <v>89</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="2"/>
-      <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="2"/>
-    </row>
-    <row>
-      <c s="10"/>
-      <c s="9"/>
-      <c s="2" t="s">
-        <v>26</v>
-      </c>
-      <c s="1" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c s="1" t="s">
+        <v>75</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -3953,7 +4065,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -3968,10 +4080,10 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -4009,22 +4121,22 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="7"/>
-      <c s="7"/>
-      <c s="2" t="s">
         <v>26</v>
+      </c>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>25</v>
       </c>
       <c s="1" t="s">
         <v>50</v>
@@ -4056,7 +4168,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -4071,10 +4183,10 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>23</v>
       </c>
       <c s="2"/>
       <c s="2"/>
@@ -4112,25 +4224,25 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="2"/>
       <c s="2" t="s">
-        <v>27</v>
-      </c>
-      <c s="1"/>
-    </row>
-    <row>
-      <c s="7"/>
-      <c s="7"/>
-      <c s="2" t="s">
         <v>26</v>
       </c>
-      <c s="1" t="s">
-        <v>18</v>
+      <c s="1"/>
+    </row>
+    <row>
+      <c s="7"/>
+      <c s="7"/>
+      <c s="2" t="s">
+        <v>25</v>
+      </c>
+      <c s="1" t="s">
+        <v>17</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -4159,7 +4271,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -4174,7 +4286,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
@@ -4206,7 +4318,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -4221,7 +4333,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c s="1" t="s">
         <v>47</v>
@@ -4234,7 +4346,7 @@
       <c s="3" t="s">
         <v>10</v>
       </c>
-      <c s="19" t="s">
+      <c s="15" t="s">
         <v>64</v>
       </c>
       <c s="3" t="s">
@@ -4251,9 +4363,9 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>86</v>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -4266,13 +4378,13 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
+      <c s="15"/>
+      <c s="3" t="s">
         <v>20</v>
       </c>
+      <c s="1" t="s">
+        <v>19</v>
+      </c>
       <c s="1"/>
       <c s="3" t="s">
         <v>65</v>
@@ -4281,7 +4393,7 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>43</v>
       </c>
@@ -4296,38 +4408,38 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>69</v>
       </c>
       <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="3"/>
-      <c s="1"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c s="3"/>
+      <c s="1"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>91</v>
       </c>
       <c s="1" t="s">
         <v>62</v>
       </c>
       <c s="3"/>
       <c s="3" t="s">
-        <v>27</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
         <v>26</v>
       </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>25</v>
+      </c>
       <c s="1" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4449,7 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>49</v>
       </c>
@@ -4352,20 +4464,20 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>73</v>
-      </c>
-      <c s="3" t="s">
-        <v>77</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>74</v>
+      </c>
+      <c s="3" t="s">
+        <v>78</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>7</v>
       </c>
@@ -4380,86 +4492,86 @@
     </row>
     <row>
       <c s="3"/>
-      <c s="19"/>
+      <c s="15"/>
       <c s="3" t="s">
         <v>32</v>
       </c>
       <c s="3" t="s">
+        <v>19</v>
+      </c>
+      <c s="3"/>
+      <c s="3" t="s">
+        <v>42</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>60</v>
+      </c>
+      <c s="1" t="s">
+        <v>62</v>
+      </c>
+      <c s="3"/>
+      <c s="3" t="s">
+        <v>26</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>87</v>
+      </c>
+      <c s="3" t="s">
+        <v>6</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3" t="s">
+        <v>35</v>
+      </c>
+      <c s="15" t="s">
+        <v>48</v>
+      </c>
+      <c s="3" t="s">
+        <v>67</v>
+      </c>
+      <c s="3" t="s">
+        <v>30</v>
+      </c>
+      <c s="3" t="s">
+        <v>35</v>
+      </c>
+      <c s="3"/>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
+        <v>88</v>
+      </c>
+      <c s="1" t="s">
+        <v>4</v>
+      </c>
+      <c s="17"/>
+      <c s="3" t="s">
+        <v>68</v>
+      </c>
+      <c s="3"/>
+    </row>
+    <row>
+      <c s="3"/>
+      <c s="15"/>
+      <c s="3" t="s">
         <v>20</v>
-      </c>
-      <c s="3"/>
-      <c s="3" t="s">
-        <v>42</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>62</v>
-      </c>
-      <c s="3"/>
-      <c s="3" t="s">
-        <v>27</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>85</v>
-      </c>
-      <c s="3" t="s">
-        <v>6</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3" t="s">
-        <v>35</v>
-      </c>
-      <c s="19" t="s">
-        <v>48</v>
-      </c>
-      <c s="3" t="s">
-        <v>67</v>
-      </c>
-      <c s="3" t="s">
-        <v>30</v>
-      </c>
-      <c s="3" t="s">
-        <v>35</v>
-      </c>
-      <c s="3"/>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>86</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="21"/>
-      <c s="3" t="s">
-        <v>68</v>
-      </c>
-      <c s="3"/>
-    </row>
-    <row>
-      <c s="3"/>
-      <c s="19"/>
-      <c s="3" t="s">
-        <v>21</v>
       </c>
       <c s="3" t="s">
         <v>66</v>
@@ -4473,7 +4585,7 @@
         <v>57</v>
       </c>
       <c s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="2" t="s">
         <v>67</v>
@@ -4491,7 +4603,7 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -4506,10 +4618,10 @@
       <c s="7"/>
       <c s="7"/>
       <c s="2" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c s="1" t="s">
+        <v>18</v>
       </c>
       <c s="1"/>
       <c s="1"/>

--- a/Test_Scenario/RIS_TestCase.xlsx
+++ b/Test_Scenario/RIS_TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_Code Repository\RISHybridFramework\Test_Scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1227650\OneDrive - MMC\Desktop\UFTCode_resp\RISHybridFramework\Test_Scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="test_batch" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="147">
   <si>
     <t>Steps</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>GSI.O2C.AR.SA.018</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>No run</t>
   </si>
   <si>
     <t>Testdata_Identifer1</t>
@@ -423,9 +429,6 @@
   </si>
   <si>
     <t>GSI.O2C.AR.SA.017</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Step 13</t>
@@ -546,10 +549,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -559,10 +562,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -662,10 +665,10 @@
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -681,62 +684,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -767,13 +770,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -796,25 +799,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -822,7 +825,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1116,169 +1119,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.81640625" style="12"/>
+    <col min="7" max="7" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="30"/>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="30"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
@@ -1286,78 +1289,78 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1377,118 +1380,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.81640625" style="28"/>
+    <col min="1" max="1" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="16.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -1496,158 +1499,158 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="15" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1672,729 +1675,729 @@
       <selection activeCell="A2" sqref="A2:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
-      <c r="C13" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
-      <c r="C22" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
-      <c r="C24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
-      <c r="C26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
-      <c r="C27" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
-      <c r="C28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
-      <c r="C29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
-      <c r="C31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
-      <c r="C33" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
-      <c r="C35" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
-      <c r="C36" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
-      <c r="C37" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
-      <c r="C38" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C38" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
-      <c r="C39" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
-      <c r="C41" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
-      <c r="C42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
-      <c r="C50" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="C50" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2422,417 +2425,417 @@
       <selection activeCell="A38" sqref="A38:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.90625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="5.90625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="35" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="41"/>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="41"/>
       <c r="C6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="41"/>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="41"/>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="30"/>
       <c r="C18" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="30"/>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="30"/>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="30"/>
       <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>14</v>
@@ -2840,199 +2843,199 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45"/>
       <c r="C28" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45"/>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45"/>
-      <c r="C31" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>77</v>
+      <c r="C31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="30"/>
       <c r="C33" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="30"/>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="30"/>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="30"/>
       <c r="C36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>31</v>
+        <v>109</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>112</v>
+      <c r="C37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="30"/>
       <c r="C39" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="30"/>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="30"/>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -3040,14 +3043,14 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="30"/>
       <c r="C42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -3081,782 +3084,782 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C100" sqref="A100:XFD103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="18" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="B3" s="47"/>
-      <c r="C3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="F3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="29"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="47"/>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="29"/>
       <c r="B6" s="48"/>
-      <c r="C6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="50"/>
       <c r="B8" s="53"/>
-      <c r="C8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="50"/>
       <c r="B9" s="53"/>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="50"/>
       <c r="B10" s="53"/>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="50"/>
       <c r="B13" s="53"/>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="53"/>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="50"/>
       <c r="B15" s="53"/>
-      <c r="C15" s="2" t="s">
-        <v>65</v>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="29"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="32"/>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="B25" s="32"/>
-      <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="B28" s="32"/>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
-      <c r="C30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
-      <c r="C34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
-      <c r="C35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A36" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
-      <c r="C37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
-      <c r="C39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A40" s="55"/>
       <c r="B40" s="55"/>
-      <c r="C40" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A41" s="55"/>
       <c r="B41" s="55"/>
-      <c r="C41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A42" s="55"/>
       <c r="B42" s="55"/>
-      <c r="C42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A43" s="55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
-      <c r="C44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A45" s="55"/>
       <c r="B45" s="55"/>
-      <c r="C45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A46" s="55" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="55"/>
       <c r="B47" s="55"/>
-      <c r="C47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A48" s="55"/>
       <c r="B48" s="55"/>
-      <c r="C48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A49" s="55"/>
       <c r="B49" s="55"/>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>95</v>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A50" s="55"/>
       <c r="B50" s="55"/>
-      <c r="C50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>13</v>
@@ -3864,44 +3867,44 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="30"/>
       <c r="C52" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="30"/>
       <c r="C53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="30"/>
       <c r="C54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
@@ -3909,55 +3912,55 @@
       </c>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="30"/>
       <c r="C55" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
+        <v>109</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="2"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="30"/>
       <c r="C56" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>95</v>
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="30"/>
       <c r="C57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="30"/>
       <c r="C58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
@@ -3965,69 +3968,69 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="30"/>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="30"/>
       <c r="C60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>95</v>
+      <c r="D60" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="30"/>
       <c r="C61" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="30"/>
       <c r="C62" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="30"/>
       <c r="C63" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>6</v>
@@ -4036,609 +4039,609 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="30"/>
       <c r="C65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="30"/>
       <c r="C66" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
-      <c r="C68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
-      <c r="C69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A71" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
-      <c r="C72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
-      <c r="C73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A75" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
-      <c r="C76" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
-      <c r="C77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
-      <c r="C78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A79" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
-      <c r="C80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
-      <c r="C81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
-      <c r="C82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A83" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
-      <c r="C84" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
-      <c r="C85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
-      <c r="C86" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A87" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
-      <c r="C88" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
-      <c r="C89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
-      <c r="C92" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
-      <c r="C93" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
-      <c r="C95" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
-      <c r="C96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="32"/>
       <c r="C98" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="32"/>
       <c r="C99" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="32"/>
       <c r="B101" s="32"/>
-      <c r="C101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A102" s="32"/>
       <c r="B102" s="32"/>
-      <c r="C102" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="32"/>
       <c r="B103" s="32"/>
-      <c r="C103" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="C103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
